--- a/DATA_goal/Junction_Flooding_449.xlsx
+++ b/DATA_goal/Junction_Flooding_449.xlsx
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.87</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.54</v>
+        <v>65.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.66</v>
+        <v>66.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.93</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.44</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.57</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.68</v>
+        <v>66.78</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_449.xlsx
+++ b/DATA_goal/Junction_Flooding_449.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45130.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45130.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.39</v>
+        <v>0.216</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.5</v>
+        <v>0.491</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.9</v>
+        <v>1.281</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.87</v>
+        <v>0.341</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.34</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.582</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.178</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.49</v>
+        <v>0.063</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.79</v>
+        <v>0.097</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.8</v>
+        <v>0.376</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.612</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.55</v>
+        <v>0.642</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>2.58</v>
+        <v>1.476</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2.86</v>
+        <v>0.502</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>65.45</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.43</v>
+        <v>1.791</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.07</v>
+        <v>0.347</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.19</v>
+        <v>1.077</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.58</v>
+        <v>0.618</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.59</v>
+        <v>4.015</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.47</v>
+        <v>0.279</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.47</v>
+        <v>0.308</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.93</v>
+        <v>0.242</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.2</v>
+        <v>0.221</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.256</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.93</v>
+        <v>0.052</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.85</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45130.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.46</v>
+        <v>22.871</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.66</v>
+        <v>17.402</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.546</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.36</v>
+        <v>49.709</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.11</v>
+        <v>40.925</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.04</v>
+        <v>18.293</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.75</v>
+        <v>64.693</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.74</v>
+        <v>27.923</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.88</v>
+        <v>12.307</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.98</v>
+        <v>18.486</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.33</v>
+        <v>19.948</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.4</v>
+        <v>21.007</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.51</v>
+        <v>5.687</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.07</v>
+        <v>18.046</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.97</v>
+        <v>25.61</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.75</v>
+        <v>15.231</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>1.134</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.06</v>
+        <v>0.969</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.59</v>
+        <v>267.792</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.93</v>
+        <v>50.313</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.22</v>
+        <v>16.657</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.73</v>
+        <v>33.748</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.43</v>
+        <v>17.978</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.71</v>
+        <v>2.393</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.74</v>
+        <v>32.09</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.28</v>
+        <v>14.687</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.09</v>
+        <v>12.963</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.69</v>
+        <v>15.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.66</v>
+        <v>21.058</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.39</v>
+        <v>58.364</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.87</v>
+        <v>9.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.28</v>
+        <v>20.798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45130.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.42</v>
+        <v>18.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.02</v>
+        <v>13.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.44</v>
+        <v>1.17</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.65</v>
+        <v>39.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.25</v>
+        <v>32.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.97</v>
+        <v>14.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.44</v>
+        <v>56.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.68</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.05</v>
+        <v>9.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.04</v>
+        <v>14.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.4</v>
+        <v>15.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.54</v>
+        <v>16.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.54</v>
+        <v>4.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.05</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.57</v>
+        <v>20.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.5</v>
+        <v>12.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.78</v>
+        <v>210.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.21</v>
+        <v>40</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.3</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>26.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.6</v>
+        <v>14.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.9</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.83</v>
+        <v>27.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.52</v>
+        <v>11.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.24</v>
+        <v>10.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.85</v>
+        <v>12.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.71</v>
+        <v>16.69</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.85</v>
+        <v>51.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.78</v>
+        <v>7.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.03</v>
+        <v>16.46</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_449.xlsx
+++ b/DATA_goal/Junction_Flooding_449.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45130.50694444445</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.162</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.209</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.427</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.398</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.391</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.345</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.759</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.337</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.452</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.439</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.302</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.553</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.294</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.297</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.517</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.762</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.458</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>255.893</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.146</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.963</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.894</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.657</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.022</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.586</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.689</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.848</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.074</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>50.56</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.856</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45130.51388888889</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.216</v>
+        <v>6.394</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.491</v>
+        <v>2.496</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.281</v>
+        <v>0.898</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.341</v>
+        <v>18.868</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.056</v>
+        <v>9.951000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>5.671</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.835000000000001</v>
+        <v>10.338</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.582</v>
+        <v>8.032999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.178</v>
+        <v>2.113</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.063</v>
+        <v>4.489</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.097</v>
+        <v>4.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>1.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.376</v>
+        <v>4.795</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.612</v>
+        <v>9.881</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.642</v>
+        <v>5.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.476</v>
+        <v>2.581</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.502</v>
+        <v>2.857</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>65.449</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.791</v>
+        <v>11.425</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.347</v>
+        <v>4.075</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.077</v>
+        <v>7.188</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.618</v>
+        <v>3.575</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08400000000000001</v>
+        <v>1.116</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.015</v>
+        <v>8.589</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.279</v>
+        <v>2.467</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.308</v>
+        <v>2.467</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.242</v>
+        <v>2.931</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.221</v>
+        <v>5.201</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.256</v>
+        <v>1.405</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.542999999999999</v>
+        <v>9.366</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.052</v>
+        <v>2.934</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.436</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45130.52083333334</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.871</v>
+        <v>6.463</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.402</v>
+        <v>3.662</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.546</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.709</v>
+        <v>15.357</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>40.925</v>
+        <v>11.107</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.293</v>
+        <v>5.042</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.693</v>
+        <v>16.755</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.923</v>
+        <v>7.738</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.307</v>
+        <v>2.877</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.486</v>
+        <v>4.984</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.948</v>
+        <v>5.331</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.007</v>
+        <v>5.4</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.687</v>
+        <v>1.511</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.046</v>
+        <v>5.075</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.61</v>
+        <v>7.973</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.231</v>
+        <v>4.748</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.134</v>
+        <v>0.922</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.969</v>
+        <v>1.059</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>267.792</v>
+        <v>66.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.313</v>
+        <v>12.929</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.657</v>
+        <v>4.215</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.748</v>
+        <v>8.731</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.978</v>
+        <v>4.431</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.393</v>
+        <v>0.707</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.09</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.687</v>
+        <v>3.277</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.963</v>
+        <v>3.089</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.16</v>
+        <v>3.687</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.058</v>
+        <v>5.661</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.364</v>
+        <v>15.394</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.4</v>
+        <v>2.866</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.798</v>
+        <v>5.279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45130.52777777778</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.11</v>
+        <v>6.417</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.77</v>
+        <v>4.016</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.438</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.37</v>
+        <v>14.648</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.42</v>
+        <v>11.246</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.56</v>
+        <v>4.967</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>56.86</v>
+        <v>18.436</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.11</v>
+        <v>7.684</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.77</v>
+        <v>3.052</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.63</v>
+        <v>5.039</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.82</v>
+        <v>5.401</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.65</v>
+        <v>5.537</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.52</v>
+        <v>1.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.29</v>
+        <v>5.048</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.31</v>
+        <v>7.567</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.07</v>
+        <v>4.505</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.578</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.701</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>210.41</v>
+        <v>66.78100000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40</v>
+        <v>13.209</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.19</v>
+        <v>4.305</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.82</v>
+        <v>8.964</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.27</v>
+        <v>4.6</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.9</v>
+        <v>0.666</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.43</v>
+        <v>9.831</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.62</v>
+        <v>3.523</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.28</v>
+        <v>3.243</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.01</v>
+        <v>3.854</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.69</v>
+        <v>5.705</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.293</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.7</v>
+        <v>16.846</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.45</v>
+        <v>2.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.46</v>
+        <v>5.406</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.14</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.03</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_449.xlsx
+++ b/DATA_goal/Junction_Flooding_449.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45130.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45130.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.394</v>
+        <v>0.216</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.496</v>
+        <v>0.491</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.898</v>
+        <v>1.281</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.868</v>
+        <v>0.341</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.951000000000001</v>
+        <v>0.056</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.671</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.338</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.032999999999999</v>
+        <v>0.582</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.113</v>
+        <v>0.178</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.489</v>
+        <v>0.063</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.79</v>
+        <v>0.097</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.383</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.795</v>
+        <v>0.376</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.881</v>
+        <v>0.612</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.55</v>
+        <v>0.642</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>2.581</v>
+        <v>1.476</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2.857</v>
+        <v>0.502</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>65.449</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.425</v>
+        <v>1.791</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.075</v>
+        <v>0.347</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.188</v>
+        <v>1.077</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.575</v>
+        <v>0.618</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.116</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.589</v>
+        <v>4.015</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.467</v>
+        <v>0.279</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.467</v>
+        <v>0.308</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.931</v>
+        <v>0.242</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.201</v>
+        <v>0.221</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.405</v>
+        <v>1.256</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.366</v>
+        <v>9.542999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.934</v>
+        <v>0.052</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.85</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45130.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.463</v>
+        <v>22.871</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.662</v>
+        <v>17.402</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5580000000000001</v>
+        <v>1.546</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.357</v>
+        <v>49.709</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.107</v>
+        <v>40.925</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.042</v>
+        <v>18.293</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.755</v>
+        <v>64.693</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.738</v>
+        <v>27.923</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.877</v>
+        <v>12.307</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.984</v>
+        <v>18.486</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.331</v>
+        <v>19.948</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.4</v>
+        <v>21.007</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.511</v>
+        <v>5.687</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.075</v>
+        <v>18.046</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.973</v>
+        <v>25.61</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.748</v>
+        <v>15.231</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.922</v>
+        <v>1.134</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.059</v>
+        <v>0.969</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.59</v>
+        <v>267.792</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.929</v>
+        <v>50.313</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.215</v>
+        <v>16.657</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.731</v>
+        <v>33.748</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.431</v>
+        <v>17.978</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.707</v>
+        <v>2.393</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.736000000000001</v>
+        <v>32.09</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.277</v>
+        <v>14.687</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.089</v>
+        <v>12.963</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.687</v>
+        <v>15.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.661</v>
+        <v>21.058</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.394</v>
+        <v>58.364</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.866</v>
+        <v>9.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.279</v>
+        <v>20.798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45130.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.417</v>
+        <v>18.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.016</v>
+        <v>13.77</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.438</v>
+        <v>1.17</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.648</v>
+        <v>39.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.246</v>
+        <v>32.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.967</v>
+        <v>14.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.436</v>
+        <v>56.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.684</v>
+        <v>22.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.052</v>
+        <v>9.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.039</v>
+        <v>14.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.401</v>
+        <v>15.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.537</v>
+        <v>16.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.54</v>
+        <v>4.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.048</v>
+        <v>14.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.567</v>
+        <v>20.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.505</v>
+        <v>12.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.578</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.701</v>
+        <v>0.74</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.78100000000001</v>
+        <v>210.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.209</v>
+        <v>40</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.305</v>
+        <v>13.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.964</v>
+        <v>26.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.6</v>
+        <v>14.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.666</v>
+        <v>1.9</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.831</v>
+        <v>27.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.523</v>
+        <v>11.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.243</v>
+        <v>10.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.854</v>
+        <v>12.01</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.705</v>
+        <v>16.69</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.293</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.846</v>
+        <v>51.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.78</v>
+        <v>7.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.406</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.03</v>
+        <v>16.46</v>
       </c>
     </row>
   </sheetData>
